--- a/excel2mysql/excels/global_var.xlsx
+++ b/excel2mysql/excels/global_var.xlsx
@@ -19,18 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>K</t>
   </si>
   <si>
-    <t>无注释</t>
+    <t>varchar(255)|PRI|</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
+    <t>text||</t>
+  </si>
+  <si>
     <t>Remark</t>
+  </si>
+  <si>
+    <t>varchar(255)||</t>
   </si>
   <si>
     <t>ADDRESS_BROKER_WECHAT</t>
@@ -516,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -527,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -538,21 +547,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -603,118 +612,118 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>60</v>
+      <c r="B8" t="s">
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>9999999</v>
+        <v>60</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>9999999</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
         <v>26</v>
       </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12">
-        <v>60</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" t="s">
         <v>40</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -724,19 +733,19 @@
       <c r="A19" t="s">
         <v>42</v>
       </c>
-      <c r="B19">
-        <v>10</v>
+      <c r="B19" t="s">
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
         <v>45</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
       </c>
       <c r="C20" t="s">
         <v>46</v>
@@ -761,18 +770,18 @@
         <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -780,10 +789,21 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excel2mysql/excels/global_var.xlsx
+++ b/excel2mysql/excels/global_var.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>K</t>
   </si>
@@ -42,6 +42,24 @@
     <t>varchar(255)||</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>麻雀充值中心,充值钻石</t>
+  </si>
+  <si>
+    <t>WEIXIN PAY BODY</t>
+  </si>
+  <si>
+    <t>ADDRESS_BROKER_REG_</t>
+  </si>
+  <si>
+    <t>http://zyd769.f3322.net:20012/login</t>
+  </si>
+  <si>
+    <t>经纪人注册地址</t>
+  </si>
+  <si>
     <t>ADDRESS_BROKER_WECHAT</t>
   </si>
   <si>
@@ -51,151 +69,118 @@
     <t>经纪人微信链接</t>
   </si>
   <si>
-    <t>Address_Reg</t>
-  </si>
-  <si>
-    <t>http://wxlogin138.mqjxqp.cn:30181/login</t>
-  </si>
-  <si>
-    <t>经纪人注册地址</t>
-  </si>
-  <si>
-    <t>agent</t>
+    <t>BACKEND_MASK_CODE_TEXT</t>
+  </si>
+  <si>
+    <t>【噜噜棋牌游戏中心】您的验证码是%s</t>
+  </si>
+  <si>
+    <t>手机短信模板</t>
+  </si>
+  <si>
+    <t>DelayDestroyRoom</t>
+  </si>
+  <si>
+    <t>房间结束后，延迟多久解散时间， 这个时间内可以续费</t>
+  </si>
+  <si>
+    <t>InitGold</t>
+  </si>
+  <si>
+    <t>注册送金币</t>
+  </si>
+  <si>
+    <t>LeaveRoomTimer</t>
+  </si>
+  <si>
+    <t>请求离开房间多少秒其他人没回应自动退出</t>
+  </si>
+  <si>
+    <t>MASK_CODE_TEXT</t>
+  </si>
+  <si>
+    <t>【噜噜棋牌游戏中心】您的验证码是%d</t>
+  </si>
+  <si>
+    <t>MASK_CODE_TIME</t>
+  </si>
+  <si>
+    <t>多久能获取一次验证码</t>
+  </si>
+  <si>
+    <t>MATCH_TIMEOUT</t>
+  </si>
+  <si>
+    <t>匹配不到房间的超时时间</t>
+  </si>
+  <si>
+    <t>MAX_CREATOR_ROOM_CNT</t>
+  </si>
+  <si>
+    <t>最多可以创建几个房间</t>
+  </si>
+  <si>
+    <t>MAX_ELECT_AWARD</t>
+  </si>
+  <si>
+    <t>领取推举人奖励</t>
+  </si>
+  <si>
+    <t>MAX_SHOW_ENTRY</t>
+  </si>
+  <si>
+    <t>客户端可获取的最多页的房间数</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>注册送砖石</t>
+  </si>
+  <si>
+    <t>TUITION_FEE</t>
+  </si>
+  <si>
+    <t>导师费</t>
+  </si>
+  <si>
+    <t>URL_BROKER</t>
+  </si>
+  <si>
+    <t>http://agent.mqjxqp.net:8081/index</t>
+  </si>
+  <si>
+    <t>经纪人后台官网，用于比赛场后台跳转</t>
+  </si>
+  <si>
+    <t>WeChatDiamondBody</t>
+  </si>
+  <si>
+    <t>经纪人后台充钻微信页面的显示</t>
+  </si>
+  <si>
+    <t>WeChatTutorBody</t>
+  </si>
+  <si>
+    <t>麻雀充值中心,升级导师</t>
+  </si>
+  <si>
+    <t>YUN_PIAN_API_KEY</t>
+  </si>
+  <si>
+    <t>fce482d259d86ca9b0490d400889a9b8</t>
+  </si>
+  <si>
+    <t>云片apikey</t>
+  </si>
+  <si>
+    <t>zpmj</t>
   </si>
   <si>
     <t>http://www.mqjx3.com/</t>
   </si>
   <si>
     <t>漳浦麻将分享官网</t>
-  </si>
-  <si>
-    <t>agent_admin_account</t>
-  </si>
-  <si>
-    <t>osuNUwHYcnL6aaaaaaaaaaaaaaaaaa</t>
-  </si>
-  <si>
-    <t>经纪人管理员账号</t>
-  </si>
-  <si>
-    <t>BACKEND_MASK_CODE_TEXT</t>
-  </si>
-  <si>
-    <t>【噜噜棋牌游戏中心】您的验证码是%s</t>
-  </si>
-  <si>
-    <t>手机短信模板</t>
-  </si>
-  <si>
-    <t>DelayDestroyRoom</t>
-  </si>
-  <si>
-    <t>房间结束后，延迟多久解散时间， 这个时间内可以续费</t>
-  </si>
-  <si>
-    <t>InitGold</t>
-  </si>
-  <si>
-    <t>注册送金币</t>
-  </si>
-  <si>
-    <t>LeaveRoomTimer</t>
-  </si>
-  <si>
-    <t>请求离开房间多少秒其他人没回应自动退出</t>
-  </si>
-  <si>
-    <t>MASK_CODE_TEXT</t>
-  </si>
-  <si>
-    <t>【噜噜棋牌游戏中心】您的验证码是%d</t>
-  </si>
-  <si>
-    <t>MASK_CODE_TIME</t>
-  </si>
-  <si>
-    <t>多久能获取一次验证码</t>
-  </si>
-  <si>
-    <t>MATCH_TIMEOUT</t>
-  </si>
-  <si>
-    <t>匹配不到房间的超时时间</t>
-  </si>
-  <si>
-    <t>MAX_CREATOR_ROOM_CNT</t>
-  </si>
-  <si>
-    <t>最多可以创建几个房间</t>
-  </si>
-  <si>
-    <t>MAX_ELECT_AWARD</t>
-  </si>
-  <si>
-    <t>领取推举人奖励</t>
-  </si>
-  <si>
-    <t>MAX_SHOW_ENTRY</t>
-  </si>
-  <si>
-    <t>客户端可获取的最多页的房间数</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>注册送砖石</t>
-  </si>
-  <si>
-    <t>TransferTxt</t>
-  </si>
-  <si>
-    <t>麻雀经纪人提现</t>
-  </si>
-  <si>
-    <t>经纪人后台提现微信页面的显示</t>
-  </si>
-  <si>
-    <t>TUITION_FEE</t>
-  </si>
-  <si>
-    <t>导师费</t>
-  </si>
-  <si>
-    <t>URL_BROKER</t>
-  </si>
-  <si>
-    <t>http://agent.mqjxqp.net:8081/index</t>
-  </si>
-  <si>
-    <t>经纪人后台官网，用于比赛场后台跳转</t>
-  </si>
-  <si>
-    <t>WeChatDiamondBody</t>
-  </si>
-  <si>
-    <t>麻雀充值中心,充值钻石</t>
-  </si>
-  <si>
-    <t>经纪人后台充钻微信页面的显示</t>
-  </si>
-  <si>
-    <t>WeChatTutorBody</t>
-  </si>
-  <si>
-    <t>麻雀充值中心,升级导师</t>
-  </si>
-  <si>
-    <t>YUN_PIAN_API_KEY</t>
-  </si>
-  <si>
-    <t>fce482d259d86ca9b0490d400889a9b8</t>
-  </si>
-  <si>
-    <t>云片apikey</t>
-  </si>
-  <si>
-    <t>zpmj</t>
   </si>
 </sst>
 </file>
@@ -525,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,198 +597,176 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>9999999</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="B9">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="B10">
-        <v>9999999</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
-      </c>
-      <c r="B13">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
         <v>32</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>36</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+      <c r="C17" t="s">
         <v>38</v>
-      </c>
-      <c r="B17">
-        <v>60</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
         <v>40</v>
-      </c>
-      <c r="B18">
-        <v>10000</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
         <v>45</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
         <v>53</v>
-      </c>
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
